--- a/data/food_original.xlsx
+++ b/data/food_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fd\Desktop\emotion_thearpy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BE985A-2BC9-46B4-A139-8B19F4244764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7E9A1E-0430-4112-86E9-4BBED3215E3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="23460" xr2:uid="{916420C5-8DB1-4B80-A7FD-00200951F471}"/>
   </bookViews>
@@ -13766,45 +13766,26 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>단맛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>혈관청소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활성산소</t>
+      <t>배출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈액 뼈</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13817,26 +13798,45 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>무기질</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>골다공증</t>
+      <t>혈관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변비</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13849,45 +13849,26 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>식이섬유</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>섬유질</t>
+      <t>항산화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복</t>
     </r>
     <r>
       <rPr>
@@ -13909,45 +13890,45 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>함암작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유기산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설탕</t>
+      <t>해열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소화</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13960,249 +13941,26 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>포도당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수분</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>항암제</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엽산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>항산화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>항염</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미네랄</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>혈액 뼈</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>노화방지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>독소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>심장</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>혈관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감지</t>
+      <t>소화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위</t>
     </r>
     <r>
       <rPr>
@@ -14223,271 +13981,16 @@
       </rPr>
       <t>변비</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>항산화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회복</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해열</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가래</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소화</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>향균</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>항염</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>면역력</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변비</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로회복 빈혈예방 변비해소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈액순환 피로회복 해독효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항암작용 발암억제 빈혈예방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감기예방 항암효과 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당뇨억제 혈액순환 염증회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신경안정 스트레스해소 숙면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>염증대응 노화대응 혈액순환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폐강화 기관지염 위장안정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노폐물배출 피로회복 혈관건강회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜레스테롤감소 고혈압예방 혈전용해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정장기능 항암작용 빈혈예방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중금속정화 관절염회복 합병증예방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변비개선 면역력강화 위장질환예방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오징어</t>
   </si>
   <si>
-    <t>피로회복, 콜레스테롤, 혈관질환</t>
-  </si>
-  <si>
     <t>상추</t>
   </si>
   <si>
-    <t>불면증, 변비예방, 혈액순환</t>
-  </si>
-  <si>
     <t>콩나물</t>
-  </si>
-  <si>
-    <t>신진대사, 항염작용, 숙취해소</t>
   </si>
   <si>
     <t>무</t>
@@ -14499,13 +14002,7 @@
     <t>옥수수</t>
   </si>
   <si>
-    <t>심혈관, 변비개선, 독소제거</t>
-  </si>
-  <si>
     <t>감자</t>
-  </si>
-  <si>
-    <t>항암작용, 당뇨병, 고혈압</t>
   </si>
   <si>
     <t>쑥</t>
@@ -14517,43 +14014,1112 @@
     <t>어묵</t>
   </si>
   <si>
-    <t>근육형성, 성인병, 뼈</t>
-  </si>
-  <si>
     <t>검은콩</t>
-  </si>
-  <si>
-    <t>항암효과, 시력강화,신장기능</t>
   </si>
   <si>
     <t>풋고추</t>
   </si>
   <si>
-    <t>함염작용, 치매예방, 위염치료</t>
-  </si>
-  <si>
     <t>새싹쌈</t>
-  </si>
-  <si>
-    <t>혈액순환, 신진대사, 피로개선</t>
   </si>
   <si>
     <t>참기름</t>
   </si>
   <si>
-    <t>콜레스테롤, 노화방지, 숙취해소</t>
-  </si>
-  <si>
     <t>간장</t>
-  </si>
-  <si>
-    <t>근육회복, 혈관질환, 신장기능</t>
   </si>
   <si>
     <t>고추장</t>
   </si>
   <si>
-    <t>항암작용, 시력회복, 혈액순환</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단맛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활성산소</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무기질</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뼈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>섬유질</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함암</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유기산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설탕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설탕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항암</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항산화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항염</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미네랄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향균</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항염</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>면역</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빈혈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변비</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈액</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해독</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항암</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발암</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빈혈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당뇨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈액</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>염증</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스트레스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숙면</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>염증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈액</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기관지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위장</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노폐물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈관</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈액</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고혈압</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈전</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항암</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빈혈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중금속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뼈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>병</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>면역력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로, 콜레스테롤, 혈관질환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불면증, 변비, 혈액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사, 항염, 숙취해소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심혈관 변비 독소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항암 당뇨병 고혈압</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근육 성인병 뼈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항암 시력 신장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함염 치매 위염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액, 신진대사, 피로개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜레스테롤, 노화방지, 숙취</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근육 혈관 신장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항암 시력 혈액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>독소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심장</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항암</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회복</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14998,8 +15564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAD0E28-05BC-4528-80D9-E3A46A33D17F}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15336,8 +15902,8 @@
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>82</v>
+      <c r="B44" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -15345,7 +15911,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -15353,7 +15919,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -15361,7 +15927,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -15369,7 +15935,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -15377,7 +15943,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -15385,7 +15951,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -15393,7 +15959,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -15401,7 +15967,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -15409,7 +15975,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -15417,7 +15983,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -15425,7 +15991,7 @@
         <v>13</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -15433,7 +15999,7 @@
         <v>14</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -15441,47 +16007,47 @@
         <v>16</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>96</v>
+      <c r="B58" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>97</v>
+      <c r="B59" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>98</v>
+      <c r="B60" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>99</v>
+      <c r="B61" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>100</v>
+      <c r="B62" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -15489,15 +16055,15 @@
         <v>26</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>102</v>
+      <c r="B64" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -15505,23 +16071,23 @@
         <v>29</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>104</v>
+      <c r="B66" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>105</v>
+      <c r="B67" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -15529,108 +16095,108 @@
         <v>33</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>107</v>
+      <c r="B69" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
         <v>131</v>
@@ -15638,18 +16204,18 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
